--- a/Original Excel Files/HC.xlsx
+++ b/Original Excel Files/HC.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Desktop\SimLibSort\Original Excel Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADE48E8-30DC-47A6-96B0-C86DCF189669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30195" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgUu3w15cjNPpbYO0s+nLhgLVdNlw=="/>
@@ -566,44 +575,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF272727"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arimo"/>
     </font>
@@ -613,11 +623,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -631,63 +647,69 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -877,1118 +899,1191 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col min="1" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="G2" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
-        <v>2005.0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1996.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2005.0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>25</v>
+        <v>103</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1982</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2009</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="A13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1990</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7">
+        <v>1991</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
+      <c r="A15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="20">
+        <v>1991</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
+      <c r="A16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1997</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" thickBot="1">
+      <c r="A17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1968</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1967</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
+      <c r="A20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1964</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1990</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1976</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="F33" s="4">
+        <v>2005</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1996</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="19">
+        <v>2005</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4">
-        <v>1989.0</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1989</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4">
-        <v>2001.0</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F41" s="19">
+        <v>2001</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4">
-        <v>2008.0</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F42" s="19">
+        <v>2008</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="4">
-        <v>1994.0</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F45" s="19">
+        <v>1994</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="19">
+        <v>1972</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1972</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A49" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1972</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="19">
+        <v>1989</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A53" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="19">
+        <v>1989</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B54" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C54" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1972.0</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="7">
-        <v>1972.0</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11">
-        <v>1972.0</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2" t="s">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="4">
-        <v>1989.0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1989.0</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1982.0</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="I61" s="12"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="I62" s="12"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="H64" s="13"/>
-      <c r="I64" s="12"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="12"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="12"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="4">
-        <v>2009.0</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1990.0</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="F56" s="19">
+        <v>1990</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="7">
-        <v>1991.0</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="11">
-        <v>1991.0</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1997.0</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="4">
-        <v>2011.0</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1968.0</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1967.0</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1964.0</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1990.0</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" t="s">
-        <v>153</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" t="s">
-        <v>165</v>
-      </c>
-      <c r="C101" t="s">
-        <v>166</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1976.0</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" t="s">
-        <v>178</v>
-      </c>
-      <c r="B113" t="s">
-        <v>73</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
+      <c r="H80" s="12"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H87" s="12"/>
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="97" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="98" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="99" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="100" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="101" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="102" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="103" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="104" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="105" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="106" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="107" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="108" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="109" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+    </row>
+    <row r="110" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="111" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="112" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
     <row r="116" ht="15.75" customHeight="1"/>
@@ -2004,36 +2099,28 @@
     <row r="126" ht="15.75" customHeight="1"/>
     <row r="127" ht="15.75" customHeight="1"/>
     <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" s="4">
-        <v>1990.0</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -2891,24 +2978,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1000">
+    <sortCondition ref="A1:A1000"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col min="1" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3892,24 +3978,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col min="1" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4893,9 +4975,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>